--- a/EXCAL-SHEET.xlsx
+++ b/EXCAL-SHEET.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>S. NO.</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>EXCAL-SHEET-TASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASK TO SIR, </t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +487,9 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
